--- a/fastexcel-reader/src/test/resources/xlsx/issue.xlsx
+++ b/fastexcel-reader/src/test/resources/xlsx/issue.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="11430" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">test!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -121,8 +122,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -925,91 +926,18 @@
     <xf numFmtId="49" fontId="21" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="26" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="28" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="26" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="28" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="28" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1058,18 +986,91 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="26" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="28" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="26" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="28" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="28" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1119,6 +1120,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1197,6 +1203,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1231,6 +1238,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1406,17 +1414,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:F44"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" customWidth="1"/>
@@ -1439,46 +1447,46 @@
     <col min="21" max="21" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="1" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="83" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="86" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="87"/>
-      <c r="P1" s="86" t="s">
+      <c r="O1" s="38"/>
+      <c r="P1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="87"/>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="38"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
         <v>10</v>
       </c>
@@ -1515,7 +1523,7 @@
       <c r="T2" s="10"/>
       <c r="U2" s="15"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>20</v>
       </c>
@@ -1552,7 +1560,7 @@
       <c r="T3" s="10"/>
       <c r="U3" s="15"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>30</v>
       </c>
@@ -1589,7 +1597,7 @@
       <c r="T4" s="10"/>
       <c r="U4" s="15"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>40</v>
       </c>
@@ -1626,7 +1634,7 @@
       <c r="T5" s="10"/>
       <c r="U5" s="15"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>50</v>
       </c>
@@ -1663,7 +1671,7 @@
       <c r="T6" s="10"/>
       <c r="U6" s="15"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>60</v>
       </c>
@@ -1700,7 +1708,7 @@
       <c r="T7" s="10"/>
       <c r="U7" s="15"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>70</v>
       </c>
@@ -1737,7 +1745,7 @@
       <c r="T8" s="10"/>
       <c r="U8" s="15"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>80</v>
       </c>
@@ -1774,7 +1782,7 @@
       <c r="T9" s="10"/>
       <c r="U9" s="15"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>90</v>
       </c>
@@ -1811,7 +1819,7 @@
       <c r="T10" s="10"/>
       <c r="U10" s="15"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>100</v>
       </c>
@@ -1848,7 +1856,7 @@
       <c r="T11" s="10"/>
       <c r="U11" s="15"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>110</v>
       </c>
@@ -1885,7 +1893,7 @@
       <c r="T12" s="10"/>
       <c r="U12" s="15"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>120</v>
       </c>
@@ -1922,7 +1930,7 @@
       <c r="T13" s="10"/>
       <c r="U13" s="15"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>130</v>
       </c>
@@ -1959,7 +1967,7 @@
       <c r="T14" s="10"/>
       <c r="U14" s="15"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>140</v>
       </c>
@@ -1996,7 +2004,7 @@
       <c r="T15" s="10"/>
       <c r="U15" s="15"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>150</v>
       </c>
@@ -2033,7 +2041,7 @@
       <c r="T16" s="10"/>
       <c r="U16" s="15"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1">
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>160</v>
       </c>
@@ -2070,7 +2078,7 @@
       <c r="T17" s="10"/>
       <c r="U17" s="15"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1">
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>170</v>
       </c>
@@ -2107,7 +2115,7 @@
       <c r="T18" s="10"/>
       <c r="U18" s="15"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1">
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>180</v>
       </c>
@@ -2144,7 +2152,7 @@
       <c r="T19" s="10"/>
       <c r="U19" s="15"/>
     </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1">
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>190</v>
       </c>
@@ -2181,7 +2189,7 @@
       <c r="T20" s="10"/>
       <c r="U20" s="15"/>
     </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>200</v>
       </c>
@@ -2218,7 +2226,7 @@
       <c r="T21" s="10"/>
       <c r="U21" s="15"/>
     </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1">
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>210</v>
       </c>
@@ -2255,7 +2263,7 @@
       <c r="T22" s="10"/>
       <c r="U22" s="15"/>
     </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1">
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>220</v>
       </c>
@@ -2292,7 +2300,7 @@
       <c r="T23" s="10"/>
       <c r="U23" s="15"/>
     </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1">
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>230</v>
       </c>
@@ -2329,7 +2337,7 @@
       <c r="T24" s="10"/>
       <c r="U24" s="15"/>
     </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1">
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
         <v>240</v>
       </c>
@@ -2366,7 +2374,7 @@
       <c r="T25" s="10"/>
       <c r="U25" s="15"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1">
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>250</v>
       </c>
@@ -2403,7 +2411,7 @@
       <c r="T26" s="10"/>
       <c r="U26" s="15"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>260</v>
       </c>
@@ -2440,7 +2448,7 @@
       <c r="T27" s="10"/>
       <c r="U27" s="15"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1">
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>270</v>
       </c>
@@ -2477,7 +2485,7 @@
       <c r="T28" s="10"/>
       <c r="U28" s="15"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1">
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>280</v>
       </c>
@@ -2514,7 +2522,7 @@
       <c r="T29" s="10"/>
       <c r="U29" s="15"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>290</v>
       </c>
@@ -2551,7 +2559,7 @@
       <c r="T30" s="10"/>
       <c r="U30" s="15"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1">
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>300</v>
       </c>
@@ -2588,7 +2596,7 @@
       <c r="T31" s="10"/>
       <c r="U31" s="15"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>310</v>
       </c>
@@ -2625,7 +2633,7 @@
       <c r="T32" s="10"/>
       <c r="U32" s="15"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" customHeight="1">
+    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
         <v>320</v>
       </c>
@@ -2662,7 +2670,7 @@
       <c r="T33" s="10"/>
       <c r="U33" s="15"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1">
+    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31">
         <v>330</v>
       </c>
@@ -2699,7 +2707,7 @@
       <c r="T34" s="10"/>
       <c r="U34" s="15"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" customHeight="1">
+    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31">
         <v>340</v>
       </c>
@@ -2736,7 +2744,7 @@
       <c r="T35" s="10"/>
       <c r="U35" s="15"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" customHeight="1">
+    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31">
         <v>350</v>
       </c>
@@ -2773,7 +2781,7 @@
       <c r="T36" s="10"/>
       <c r="U36" s="15"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" customHeight="1">
+    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>0</v>
       </c>
@@ -2810,7 +2818,7 @@
       <c r="T37" s="10"/>
       <c r="U37" s="15"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
+    <row r="38" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27">
         <v>0</v>
       </c>
@@ -2847,141 +2855,141 @@
       <c r="T38" s="10"/>
       <c r="U38" s="15"/>
     </row>
-    <row r="39" spans="1:21" ht="16.350000000000001" customHeight="1" thickBot="1">
+    <row r="39" spans="1:21" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="82"/>
-      <c r="T39" s="82"/>
+      <c r="C39" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
       <c r="U39" s="17"/>
     </row>
-    <row r="40" spans="1:21" ht="16.350000000000001" customHeight="1" thickBot="1">
+    <row r="40" spans="1:21" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="19"/>
-      <c r="C40" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="73"/>
+      <c r="C40" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="50"/>
       <c r="G40" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="65" t="s">
+      <c r="H40" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="I40" s="65"/>
+      <c r="I40" s="42"/>
       <c r="J40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K40" s="74" t="s">
+      <c r="K40" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="L40" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="M40" s="63"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="77" t="s">
+      <c r="L40" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M40" s="40"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="P40" s="78"/>
-      <c r="Q40" s="79"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="56"/>
       <c r="R40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S40" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="T40" s="63"/>
-      <c r="U40" s="64"/>
-    </row>
-    <row r="41" spans="1:21" ht="16.350000000000001" customHeight="1" thickBot="1">
+      <c r="S40" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="T40" s="40"/>
+      <c r="U40" s="41"/>
+    </row>
+    <row r="41" spans="1:21" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="20"/>
-      <c r="C41" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="66"/>
+      <c r="C41" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="43"/>
       <c r="G41" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="67"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="69" t="s">
+      <c r="K41" s="52"/>
+      <c r="L41" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="44"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="71"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="48"/>
       <c r="R41" s="21"/>
-      <c r="S41" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="T41" s="80"/>
-      <c r="U41" s="81"/>
-    </row>
-    <row r="42" spans="1:21" ht="16.350000000000001" customHeight="1" thickBot="1">
-      <c r="A42" s="33" t="s">
+      <c r="S41" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="57"/>
+      <c r="U41" s="58"/>
+    </row>
+    <row r="42" spans="1:21" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="40"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="66"/>
       <c r="G42" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="43"/>
-      <c r="N42" s="44"/>
+      <c r="H42" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="67"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="69"/>
+      <c r="N42" s="70"/>
       <c r="O42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="72"/>
       <c r="R42" s="18" t="s">
         <v>21</v>
       </c>
@@ -2995,34 +3003,34 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="16.350000000000001" customHeight="1" thickBot="1">
-      <c r="A43" s="35"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="40"/>
+    <row r="43" spans="1:21" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="61"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="66"/>
       <c r="G43" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="47"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="54"/>
+      <c r="H43" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="73"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="80"/>
       <c r="O43" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="P43" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="46"/>
+      <c r="P43" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="72"/>
       <c r="R43" s="18" t="s">
         <v>24</v>
       </c>
@@ -3036,56 +3044,39 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="16.350000000000001" customHeight="1" thickBot="1">
-      <c r="A44" s="37"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
+    <row r="44" spans="1:21" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="63"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="84"/>
       <c r="G44" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="59"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="56"/>
+      <c r="H44" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="85"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="81"/>
+      <c r="N44" s="82"/>
       <c r="O44" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="P44" s="61" t="s">
+      <c r="P44" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="Q44" s="61"/>
-      <c r="R44" s="61"/>
-      <c r="S44" s="61"/>
-      <c r="T44" s="61"/>
-      <c r="U44" s="62"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="87"/>
+      <c r="S44" s="87"/>
+      <c r="T44" s="87"/>
+      <c r="U44" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C39:T39"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:U1"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="S41:U41"/>
     <mergeCell ref="A42:B44"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="H42:J42"/>
@@ -3099,6 +3090,23 @@
     <mergeCell ref="C44:F44"/>
     <mergeCell ref="H44:J44"/>
     <mergeCell ref="P44:U44"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="C39:T39"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:U1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" r:id="rId1"/>
